--- a/SiriBooks.xlsx
+++ b/SiriBooks.xlsx
@@ -174,19 +174,19 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>tab-2</t>
-  </si>
-  <si>
-    <t>tab-3</t>
-  </si>
-  <si>
-    <t>Reports tab</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>Reports tab -- dashboard // comes before inventory--landing page</t>
+  </si>
+  <si>
+    <t>tab-2 ---- help</t>
+  </si>
+  <si>
+    <t>tab-3 ---reminder</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1"/>
@@ -612,15 +612,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
-        <v>12</v>
-      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1">
       <c r="A3" s="4">
@@ -687,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1">
@@ -701,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1">
@@ -733,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1">
@@ -796,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
